--- a/november.2025.xlsx
+++ b/november.2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AshwijaAShetty\Documents\Office\Shift roster\2025\Nov\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RudragoudaPatil\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{8EDFB449-E439-46E9-952C-4F8C11BB2386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C96BA32F-FA14-4914-BD1F-C7B9D5D26EA5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{654664BC-99DB-4B1B-9DC9-E7EC0C92F0CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" xr2:uid="{AA7B6CB7-610B-440F-9138-C11D271635E5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" activeTab="1" xr2:uid="{AA7B6CB7-610B-440F-9138-C11D271635E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Support" sheetId="2" r:id="rId1"/>
@@ -163,7 +163,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -792,26 +792,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{546BADA2-883A-4B4E-AC2E-298C97D706E5}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -827,7 +827,7 @@
       <c r="K1" s="29"/>
       <c r="L1" s="29"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
@@ -865,7 +865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="15">
         <v>45962</v>
       </c>
@@ -903,7 +903,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <v>45963</v>
       </c>
@@ -941,7 +941,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="15">
         <v>45964</v>
       </c>
@@ -979,7 +979,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="15">
         <v>45965</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="15">
         <v>45966</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="15">
         <v>45967</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
         <v>45968</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="15">
         <v>45969</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="15">
         <v>45970</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="15">
         <v>45971</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="15">
         <v>45972</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="15">
         <v>45973</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="15">
         <v>45974</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="15">
         <v>45975</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="15">
         <v>45976</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="15">
         <v>45977</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="15">
         <v>45978</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="15">
         <v>45979</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="15">
         <v>45980</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="15">
         <v>45981</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="15">
         <v>45982</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="15">
         <v>45983</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="15">
         <v>45984</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="15">
         <v>45985</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="15">
         <v>45986</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="15">
         <v>45987</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="15">
         <v>45988</v>
       </c>
@@ -1891,7 +1891,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="15">
         <v>45989</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="15">
         <v>45990</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="15">
         <v>45991</v>
       </c>
@@ -2005,7 +2005,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="15">
         <v>45992</v>
       </c>
@@ -2056,27 +2056,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBCC5301-CA21-4570-ABD3-627BB879B9FB}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17:J18"/>
+    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="37.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="37.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="27" thickBot="1">
+    <row r="1" spans="1:12" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="30" t="s">
         <v>28</v>
       </c>
@@ -2092,7 +2092,7 @@
       <c r="K1" s="31"/>
       <c r="L1" s="31"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>45962</v>
       </c>
@@ -2168,7 +2168,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>45963</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>45964</v>
       </c>
@@ -2244,7 +2244,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>45965</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>45966</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>45967</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>45968</v>
       </c>
@@ -2396,7 +2396,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>45969</v>
       </c>
@@ -2434,7 +2434,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>45970</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>45971</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>45972</v>
       </c>
@@ -2548,7 +2548,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>45973</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>45974</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>45975</v>
       </c>
@@ -2662,7 +2662,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>45976</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>45977</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>45978</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>45979</v>
       </c>
@@ -2814,7 +2814,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>45980</v>
       </c>
@@ -2852,7 +2852,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>45981</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>45982</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>45983</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>45984</v>
       </c>
@@ -3004,7 +3004,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>45985</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>45986</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>45987</v>
       </c>
@@ -3118,7 +3118,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>45988</v>
       </c>
@@ -3156,7 +3156,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>45989</v>
       </c>
@@ -3194,7 +3194,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>45990</v>
       </c>
@@ -3232,7 +3232,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>45991</v>
       </c>
@@ -3281,15 +3281,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009BF5217E9D65A04E9018BEF5FE267F07" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b74822bdf38d500cc03c9e547801353d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7d3acbe5-c2db-4995-8e41-d07b0a3b581e" xmlns:ns3="0a681b79-5716-4e60-bb9d-d5ae40e280ef" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2e374bc143d4be804cead6a9a95965a7" ns2:_="" ns3:_="">
     <xsd:import namespace="7d3acbe5-c2db-4995-8e41-d07b0a3b581e"/>
@@ -3564,7 +3555,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="0a681b79-5716-4e60-bb9d-d5ae40e280ef">
@@ -3575,14 +3566,55 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D22BD9E4-A8A8-43E0-AF9F-4E8E019CABBF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB986BBF-856D-46F3-A6D8-4FA7CB11838A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="7d3acbe5-c2db-4995-8e41-d07b0a3b581e"/>
+    <ds:schemaRef ds:uri="0a681b79-5716-4e60-bb9d-d5ae40e280ef"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB986BBF-856D-46F3-A6D8-4FA7CB11838A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54A96B29-B375-4332-8585-5B079AE83261}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="7d3acbe5-c2db-4995-8e41-d07b0a3b581e"/>
+    <ds:schemaRef ds:uri="0a681b79-5716-4e60-bb9d-d5ae40e280ef"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54A96B29-B375-4332-8585-5B079AE83261}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D22BD9E4-A8A8-43E0-AF9F-4E8E019CABBF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/november.2025.xlsx
+++ b/november.2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RudragoudaPatil\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31D8B85-46A7-4450-99A7-4109761E0814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8650F4D0-F001-472B-8567-797E5703FE24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" xr2:uid="{AA7B6CB7-610B-440F-9138-C11D271635E5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" activeTab="1" xr2:uid="{AA7B6CB7-610B-440F-9138-C11D271635E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Support" sheetId="2" r:id="rId1"/>
@@ -344,7 +344,6 @@
   </cellStyleXfs>
   <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="15" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -379,6 +378,7 @@
     <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -715,13 +715,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{546BADA2-883A-4B4E-AC2E-298C97D706E5}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="29" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
@@ -735,1218 +735,1218 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="28">
+      <c r="A2" s="27">
         <v>45962</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="17" t="s">
+      <c r="D2" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="18" t="s">
+      <c r="F2" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="28">
+      <c r="A3" s="27">
         <v>45963</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="17" t="s">
+      <c r="D3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="18" t="s">
+      <c r="F3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="18" t="s">
+      <c r="H3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="28">
+      <c r="A4" s="27">
         <v>45964</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="18" t="s">
+      <c r="J4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="L4" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="28">
+      <c r="A5" s="27">
         <v>45965</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="18" t="s">
+      <c r="I5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5" s="18" t="s">
+      <c r="J5" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="20" t="s">
+      <c r="L5" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="28">
+      <c r="A6" s="27">
         <v>45966</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="20" t="s">
+      <c r="J6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="K6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="16" t="s">
+      <c r="L6" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="28">
+      <c r="A7" s="27">
         <v>45967</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="J7" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="18" t="s">
+      <c r="K7" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="16" t="s">
+      <c r="L7" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="28">
+      <c r="A8" s="27">
         <v>45968</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="18" t="s">
+      <c r="H8" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="19" t="s">
+      <c r="J8" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="18" t="s">
+      <c r="K8" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="24" t="s">
+      <c r="L8" s="23" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="28">
+      <c r="A9" s="27">
         <v>45969</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="17" t="s">
+      <c r="D9" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="18" t="s">
+      <c r="F9" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" s="18" t="s">
+      <c r="H9" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J9" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K9" s="18" t="s">
+      <c r="K9" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="20" t="s">
+      <c r="L9" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="28">
+      <c r="A10" s="27">
         <v>45970</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="17" t="s">
+      <c r="D10" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="18" t="s">
+      <c r="F10" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" s="18" t="s">
+      <c r="H10" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="19" t="s">
+      <c r="J10" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="18" t="s">
+      <c r="K10" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="20" t="s">
+      <c r="L10" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="28">
+      <c r="A11" s="27">
         <v>45971</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="H11" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="18" t="s">
+      <c r="I11" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="K11" s="18" t="s">
+      <c r="J11" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="L11" s="23" t="s">
+      <c r="L11" s="22" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="28">
+      <c r="A12" s="27">
         <v>45972</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="19" t="s">
+      <c r="H12" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I12" s="18" t="s">
+      <c r="I12" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J12" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="K12" s="18" t="s">
+      <c r="J12" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="L12" s="23" t="s">
+      <c r="L12" s="22" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="28">
+      <c r="A13" s="27">
         <v>45973</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="24" t="s">
+      <c r="H13" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="18" t="s">
+      <c r="I13" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="19" t="s">
+      <c r="J13" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K13" s="18" t="s">
+      <c r="K13" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="L13" s="16" t="s">
+      <c r="L13" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="28">
+      <c r="A14" s="27">
         <v>45974</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="24" t="s">
+      <c r="H14" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="18" t="s">
+      <c r="I14" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="19" t="s">
+      <c r="J14" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K14" s="18" t="s">
+      <c r="K14" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="L14" s="16" t="s">
+      <c r="L14" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="28">
+      <c r="A15" s="27">
         <v>45975</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="25" t="s">
+      <c r="H15" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="18" t="s">
+      <c r="I15" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="19" t="s">
+      <c r="J15" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="18" t="s">
+      <c r="K15" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="L15" s="24" t="s">
+      <c r="L15" s="23" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="28">
+      <c r="A16" s="27">
         <v>45976</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="17" t="s">
+      <c r="D16" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" s="18" t="s">
+      <c r="F16" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I16" s="18" t="s">
+      <c r="H16" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J16" s="19" t="s">
+      <c r="J16" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K16" s="18" t="s">
+      <c r="K16" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="L16" s="20" t="s">
+      <c r="L16" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="28">
+      <c r="A17" s="27">
         <v>45977</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="17" t="s">
+      <c r="D17" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="18" t="s">
+      <c r="F17" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H17" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I17" s="18" t="s">
+      <c r="H17" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J17" s="19" t="s">
+      <c r="J17" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K17" s="18" t="s">
+      <c r="K17" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="L17" s="20" t="s">
+      <c r="L17" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="28">
+      <c r="A18" s="27">
         <v>45978</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="18" t="s">
+      <c r="G18" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H18" s="19" t="s">
+      <c r="H18" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I18" s="18" t="s">
+      <c r="I18" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J18" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="K18" s="18" t="s">
+      <c r="J18" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="K18" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="L18" s="23" t="s">
+      <c r="L18" s="22" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="28">
+      <c r="A19" s="27">
         <v>45979</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H19" s="19" t="s">
+      <c r="H19" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I19" s="18" t="s">
+      <c r="I19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J19" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="K19" s="18" t="s">
+      <c r="J19" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="K19" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="L19" s="23" t="s">
+      <c r="L19" s="22" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="28">
+      <c r="A20" s="27">
         <v>45980</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="18" t="s">
+      <c r="G20" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H20" s="24" t="s">
+      <c r="H20" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I20" s="18" t="s">
+      <c r="I20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J20" s="19" t="s">
+      <c r="J20" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K20" s="18" t="s">
+      <c r="K20" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="L20" s="16" t="s">
+      <c r="L20" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="28">
+      <c r="A21" s="27">
         <v>45981</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="18" t="s">
+      <c r="G21" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="24" t="s">
+      <c r="H21" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="18" t="s">
+      <c r="I21" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J21" s="19" t="s">
+      <c r="J21" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K21" s="18" t="s">
+      <c r="K21" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="L21" s="16" t="s">
+      <c r="L21" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="28">
+      <c r="A22" s="27">
         <v>45982</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="E22" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G22" s="18" t="s">
+      <c r="G22" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="I22" s="18" t="s">
+      <c r="H22" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J22" s="19" t="s">
+      <c r="J22" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K22" s="18" t="s">
+      <c r="K22" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="L22" s="24" t="s">
+      <c r="L22" s="23" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="28">
+      <c r="A23" s="27">
         <v>45983</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="17" t="s">
+      <c r="D23" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="G23" s="18" t="s">
+      <c r="F23" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H23" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I23" s="18" t="s">
+      <c r="H23" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J23" s="19" t="s">
+      <c r="J23" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K23" s="18" t="s">
+      <c r="K23" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="L23" s="20" t="s">
+      <c r="L23" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="28">
+      <c r="A24" s="27">
         <v>45984</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="17" t="s">
+      <c r="D24" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="G24" s="18" t="s">
+      <c r="F24" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H24" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I24" s="18" t="s">
+      <c r="H24" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J24" s="19" t="s">
+      <c r="J24" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K24" s="18" t="s">
+      <c r="K24" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="L24" s="20" t="s">
+      <c r="L24" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="28">
+      <c r="A25" s="27">
         <v>45985</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="17" t="s">
+      <c r="E25" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F25" s="20" t="s">
+      <c r="F25" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="18" t="s">
+      <c r="G25" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H25" s="19" t="s">
+      <c r="H25" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I25" s="18" t="s">
+      <c r="I25" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J25" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="K25" s="18" t="s">
+      <c r="J25" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="K25" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="L25" s="23" t="s">
+      <c r="L25" s="22" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="28">
+      <c r="A26" s="27">
         <v>45986</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="E26" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="F26" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G26" s="18" t="s">
+      <c r="G26" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H26" s="19" t="s">
+      <c r="H26" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I26" s="18" t="s">
+      <c r="I26" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J26" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="K26" s="18" t="s">
+      <c r="J26" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="K26" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="L26" s="23" t="s">
+      <c r="L26" s="22" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="28">
+      <c r="A27" s="27">
         <v>45987</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="17" t="s">
+      <c r="E27" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F27" s="20" t="s">
+      <c r="F27" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="G27" s="18" t="s">
+      <c r="G27" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H27" s="24" t="s">
+      <c r="H27" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I27" s="18" t="s">
+      <c r="I27" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J27" s="19" t="s">
+      <c r="J27" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K27" s="18" t="s">
+      <c r="K27" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="L27" s="16" t="s">
+      <c r="L27" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="28">
+      <c r="A28" s="27">
         <v>45988</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="17" t="s">
+      <c r="E28" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F28" s="20" t="s">
+      <c r="F28" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="18" t="s">
+      <c r="G28" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H28" s="24" t="s">
+      <c r="H28" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I28" s="18" t="s">
+      <c r="I28" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J28" s="19" t="s">
+      <c r="J28" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K28" s="18" t="s">
+      <c r="K28" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="L28" s="16" t="s">
+      <c r="L28" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="28">
+      <c r="A29" s="27">
         <v>45989</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="D29" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="17" t="s">
+      <c r="E29" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F29" s="20" t="s">
+      <c r="F29" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G29" s="18" t="s">
+      <c r="G29" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="25" t="s">
+      <c r="H29" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="I29" s="18" t="s">
+      <c r="I29" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J29" s="19" t="s">
+      <c r="J29" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K29" s="18" t="s">
+      <c r="K29" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="L29" s="24" t="s">
+      <c r="L29" s="23" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="28">
+      <c r="A30" s="27">
         <v>45990</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="17" t="s">
+      <c r="D30" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F30" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="G30" s="18" t="s">
+      <c r="F30" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H30" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I30" s="18" t="s">
+      <c r="H30" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I30" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J30" s="19" t="s">
+      <c r="J30" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K30" s="18" t="s">
+      <c r="K30" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="L30" s="20" t="s">
+      <c r="L30" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="28">
+      <c r="A31" s="27">
         <v>45991</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="17" t="s">
+      <c r="D31" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F31" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="G31" s="18" t="s">
+      <c r="F31" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H31" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I31" s="18" t="s">
+      <c r="H31" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I31" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J31" s="19" t="s">
+      <c r="J31" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K31" s="18" t="s">
+      <c r="K31" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="L31" s="20" t="s">
+      <c r="L31" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="28">
+      <c r="A32" s="27">
         <v>45992</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="22" t="s">
+      <c r="D32" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="17" t="s">
+      <c r="E32" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F32" s="20" t="s">
+      <c r="F32" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G32" s="18" t="s">
+      <c r="G32" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H32" s="19" t="s">
+      <c r="H32" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I32" s="18" t="s">
+      <c r="I32" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J32" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="K32" s="18" t="s">
+      <c r="J32" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="K32" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="L32" s="23" t="s">
+      <c r="L32" s="22" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1960,13 +1960,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBCC5301-CA21-4570-ABD3-627BB879B9FB}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.44140625" bestFit="1" customWidth="1"/>
@@ -1981,1180 +1981,1180 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="11" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="A2" s="29">
         <v>45962</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="7" t="s">
+      <c r="H2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="A3" s="29">
         <v>45963</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="F3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="7" t="s">
+      <c r="H3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="A4" s="29">
         <v>45964</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="7" t="s">
+      <c r="J4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="A5" s="29">
         <v>45965</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5" s="7" t="s">
+      <c r="J5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="A6" s="29">
         <v>45966</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="7" t="s">
+      <c r="H6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="L6" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="A7" s="29">
         <v>45967</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="7" t="s">
+      <c r="H7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="L7" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="A8" s="29">
         <v>45968</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L8" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="A9" s="29">
         <v>45969</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="D9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="3" t="s">
+      <c r="F9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" s="7" t="s">
+      <c r="H9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="L9" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="A10" s="29">
         <v>45970</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="D10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="3" t="s">
+      <c r="F10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" s="7" t="s">
+      <c r="H10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="J10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="L10" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="A11" s="29">
         <v>45971</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="3" t="s">
+      <c r="F11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J11" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="K11" s="7" t="s">
+      <c r="J11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="L11" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+      <c r="A12" s="29">
         <v>45972</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J12" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="K12" s="7" t="s">
+      <c r="J12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="L12" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+      <c r="A13" s="29">
         <v>45973</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" s="7" t="s">
+      <c r="H13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="J13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L13" s="8" t="s">
+      <c r="L13" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+      <c r="A14" s="29">
         <v>45974</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="7" t="s">
+      <c r="H14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="J14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L14" s="8" t="s">
+      <c r="L14" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+      <c r="A15" s="29">
         <v>45975</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="L15" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+      <c r="A16" s="29">
         <v>45976</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="D16" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" s="3" t="s">
+      <c r="F16" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I16" s="7" t="s">
+      <c r="H16" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="J16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="K16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="L16" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+      <c r="A17" s="29">
         <v>45977</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="5" t="s">
+      <c r="D17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="3" t="s">
+      <c r="F17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I17" s="7" t="s">
+      <c r="H17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="J17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="K17" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="L17" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+      <c r="A18" s="29">
         <v>45978</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J18" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="K18" s="7" t="s">
+      <c r="J18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K18" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="L18" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+      <c r="A19" s="29">
         <v>45979</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H19" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="I19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J19" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="K19" s="7" t="s">
+      <c r="J19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K19" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="L19" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+      <c r="A20" s="29">
         <v>45980</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I20" s="7" t="s">
+      <c r="H20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J20" s="6" t="s">
+      <c r="J20" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="K20" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L20" s="8" t="s">
+      <c r="L20" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+      <c r="A21" s="29">
         <v>45981</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="3" t="s">
+      <c r="F21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H21" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="I21" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J21" s="6" t="s">
+      <c r="J21" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="K21" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L21" s="8" t="s">
+      <c r="L21" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+      <c r="A22" s="29">
         <v>45982</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="H22" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="I22" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J22" s="6" t="s">
+      <c r="J22" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="K22" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="L22" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+      <c r="A23" s="29">
         <v>45983</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="5" t="s">
+      <c r="D23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G23" s="3" t="s">
+      <c r="F23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H23" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I23" s="7" t="s">
+      <c r="H23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J23" s="6" t="s">
+      <c r="J23" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="K23" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L23" s="2" t="s">
+      <c r="L23" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+      <c r="A24" s="29">
         <v>45984</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="5" t="s">
+      <c r="D24" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G24" s="3" t="s">
+      <c r="F24" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H24" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I24" s="7" t="s">
+      <c r="H24" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J24" s="6" t="s">
+      <c r="J24" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="K24" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="L24" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+      <c r="A25" s="29">
         <v>45985</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="H25" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I25" s="7" t="s">
+      <c r="I25" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J25" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="K25" s="7" t="s">
+      <c r="J25" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K25" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L25" s="2" t="s">
+      <c r="L25" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+      <c r="A26" s="29">
         <v>45986</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="H26" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I26" s="7" t="s">
+      <c r="I26" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J26" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="K26" s="7" t="s">
+      <c r="J26" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K26" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L26" s="2" t="s">
+      <c r="L26" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
+      <c r="A27" s="29">
         <v>45987</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F27" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H27" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I27" s="7" t="s">
+      <c r="H27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J27" s="6" t="s">
+      <c r="J27" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="K27" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L27" s="8" t="s">
+      <c r="L27" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
+      <c r="A28" s="29">
         <v>45988</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="F28" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H28" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I28" s="7" t="s">
+      <c r="H28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J28" s="6" t="s">
+      <c r="J28" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="K28" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L28" s="8" t="s">
+      <c r="L28" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
+      <c r="A29" s="29">
         <v>45989</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="F29" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G29" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H29" s="11" t="s">
+      <c r="H29" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="I29" s="7" t="s">
+      <c r="I29" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J29" s="6" t="s">
+      <c r="J29" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="K29" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L29" s="4" t="s">
+      <c r="L29" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
+      <c r="A30" s="29">
         <v>45990</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="5" t="s">
+      <c r="D30" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F30" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G30" s="3" t="s">
+      <c r="F30" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H30" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I30" s="7" t="s">
+      <c r="H30" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I30" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J30" s="6" t="s">
+      <c r="J30" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="K30" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L30" s="2" t="s">
+      <c r="L30" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
+      <c r="A31" s="29">
         <v>45991</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="5" t="s">
+      <c r="D31" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G31" s="3" t="s">
+      <c r="F31" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H31" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I31" s="7" t="s">
+      <c r="H31" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I31" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J31" s="6" t="s">
+      <c r="J31" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="K31" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L31" s="2" t="s">
+      <c r="L31" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3165,6 +3165,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="0a681b79-5716-4e60-bb9d-d5ae40e280ef">
@@ -3173,15 +3182,6 @@
     <TaxCatchAll xmlns="7d3acbe5-c2db-4995-8e41-d07b0a3b581e" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3460,6 +3460,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D22BD9E4-A8A8-43E0-AF9F-4E8E019CABBF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54A96B29-B375-4332-8585-5B079AE83261}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -3472,14 +3480,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="0a681b79-5716-4e60-bb9d-d5ae40e280ef"/>
     <ds:schemaRef ds:uri="7d3acbe5-c2db-4995-8e41-d07b0a3b581e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D22BD9E4-A8A8-43E0-AF9F-4E8E019CABBF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/november.2025.xlsx
+++ b/november.2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RudragoudaPatil\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8650F4D0-F001-472B-8567-797E5703FE24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9F25FF-BFC4-4286-A0E6-62260553E3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" activeTab="1" xr2:uid="{AA7B6CB7-610B-440F-9138-C11D271635E5}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="36">
   <si>
     <t>Date</t>
   </si>
@@ -148,12 +148,6 @@
   </si>
   <si>
     <t>11:00 AM to 8:00 PM</t>
-  </si>
-  <si>
-    <t>Support</t>
-  </si>
-  <si>
-    <t>Shitt Timings</t>
   </si>
 </sst>
 </file>
@@ -715,8 +709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{546BADA2-883A-4B4E-AC2E-298C97D706E5}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1961,7 +1955,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1988,34 +1982,34 @@
         <v>1</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>36</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>2</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -3165,15 +3159,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="0a681b79-5716-4e60-bb9d-d5ae40e280ef">
@@ -3182,6 +3167,15 @@
     <TaxCatchAll xmlns="7d3acbe5-c2db-4995-8e41-d07b0a3b581e" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3460,14 +3454,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D22BD9E4-A8A8-43E0-AF9F-4E8E019CABBF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54A96B29-B375-4332-8585-5B079AE83261}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -3480,6 +3466,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="0a681b79-5716-4e60-bb9d-d5ae40e280ef"/>
     <ds:schemaRef ds:uri="7d3acbe5-c2db-4995-8e41-d07b0a3b581e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D22BD9E4-A8A8-43E0-AF9F-4E8E019CABBF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
